--- a/1. Seccion de Producto/1.4. Evaluacion Economica/1.4.1 Evaluacion Proyecto Ingenieria.xlsx
+++ b/1. Seccion de Producto/1.4. Evaluacion Economica/1.4.1 Evaluacion Proyecto Ingenieria.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19183259-289C-4C7B-91D7-7E0517D354BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0BAC2-C210-46C5-98A6-EF13E670AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EVALUACION PRY OPCION 1" sheetId="1" r:id="rId1"/>
-    <sheet name="COSTOS PRY" sheetId="2" r:id="rId2"/>
+    <sheet name="EVALUACION PRY CLIENTE 1" sheetId="2" r:id="rId1"/>
+    <sheet name="COSTOS PRY" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Inflacion1">#REF!</definedName>
@@ -37,14 +37,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ahTNqu4lpF+ktErIiARYDAWmGLb+VwHj93WoPyXs6qc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="pbi4hPQJqJE+yoFKvxItayI3COLTpjNDl2ADKlG5a9c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>MENSUALIDAD CLIENTE (MILLONES)</t>
   </si>
@@ -159,6 +159,18 @@
     <t>COSTO</t>
   </si>
   <si>
+    <t>Sensores</t>
+  </si>
+  <si>
+    <t>Necesidad</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>PLCs</t>
   </si>
   <si>
@@ -168,16 +180,22 @@
     <t>Internet</t>
   </si>
   <si>
+    <t>E2E-X5ME1</t>
+  </si>
+  <si>
     <t>Robots</t>
   </si>
   <si>
     <t>Energía eléctrica (Of. Administrativas)</t>
   </si>
   <si>
-    <t>Sensores</t>
+    <t>XT7C40AP349</t>
   </si>
   <si>
     <t>Agua</t>
+  </si>
+  <si>
+    <t>IND570</t>
   </si>
   <si>
     <t>Maquinaria</t>
@@ -186,19 +204,40 @@
     <t>Seguro empleados</t>
   </si>
   <si>
+    <t>FD-MH Series</t>
+  </si>
+  <si>
     <t>Seguro bodega</t>
+  </si>
+  <si>
+    <t>HED8</t>
+  </si>
+  <si>
+    <t>RTD-805</t>
   </si>
   <si>
     <t>SOFTWARE</t>
   </si>
   <si>
+    <t>In-Sight 7000</t>
+  </si>
+  <si>
     <t>Studio 5000(?)</t>
+  </si>
+  <si>
+    <t>440F-M2030BYNN</t>
   </si>
   <si>
     <t>Siemenx NX</t>
   </si>
   <si>
+    <t>S30A-6111DP</t>
+  </si>
+  <si>
     <t>Ignition</t>
+  </si>
+  <si>
+    <t>800FP-MT44PX01S</t>
   </si>
   <si>
     <t>Robot Studio</t>
@@ -207,13 +246,25 @@
     <t>Tecnomatix</t>
   </si>
   <si>
+    <t>440K-T11090</t>
+  </si>
+  <si>
     <t>NOMINA</t>
+  </si>
+  <si>
+    <t>XUSL2E2BB051N</t>
   </si>
   <si>
     <t>Ingeniero 1</t>
   </si>
   <si>
+    <t>XVC6B35SK</t>
+  </si>
+  <si>
     <t>Ingeniero 2</t>
+  </si>
+  <si>
+    <t>3SB3501-0AA21</t>
   </si>
   <si>
     <t>Ingeniero 3</t>
@@ -444,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -524,9 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -545,15 +593,27 @@
     <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -805,19 +865,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="26" width="11.42578125" customWidth="1"/>
+    <col min="3" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="22" width="20.85546875" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
@@ -825,14 +888,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>212060058*0.7</f>
-        <v>148442040.59999999</v>
+        <f>212060058</f>
+        <v>212060058</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1122,14 +1185,14 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1140,62 +1203,74 @@
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10">
-        <f t="shared" ref="C8:N8" si="0">$B$1</f>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <f t="shared" ref="G8:V8" si="0">$B$1</f>
+        <v>212060058</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+        <v>212060058</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
+      <c r="V8" s="10">
+        <f t="shared" si="0"/>
+        <v>212060058</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1207,61 +1282,85 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10">
-        <f t="shared" ref="C9:N9" si="1">SUM(C8)</f>
-        <v>148442040.59999999</v>
+        <f t="shared" ref="C9:V9" si="1">SUM(C8)</f>
+        <v>0</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
+        <v>212060058</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" si="1"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+        <v>212060058</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="1"/>
+        <v>212060058</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1282,14 +1381,14 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1314,14 +1413,14 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1333,28 +1432,64 @@
       </c>
       <c r="B12" s="13">
         <f>'COSTOS PRY'!E5</f>
-        <v>371046366</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+        <v>822674887</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:N12" si="2">$B$12*0.3/12</f>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="2"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1366,61 +1501,85 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:N13" si="2">$B$3</f>
+        <f t="shared" ref="C13:V13" si="3">$B$3</f>
         <v>0</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="O13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -1431,46 +1590,41 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
-        <v>30000000</v>
+        <f t="shared" ref="B14:F14" si="4">($B$2*1.6)*6</f>
+        <v>48000000</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:H14" si="3">($B$2*1.6)*6</f>
+        <f t="shared" si="4"/>
         <v>48000000</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48000000</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48000000</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48000000</v>
       </c>
-      <c r="G14" s="13">
-        <f t="shared" si="3"/>
-        <v>48000000</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="3"/>
-        <v>48000000</v>
-      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -1481,65 +1635,89 @@
         <v>13</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" ref="B15:N15" si="4">SUM(B12:B14)</f>
-        <v>401046366</v>
+        <f t="shared" ref="B15:V15" si="5">SUM(B12:B14)</f>
+        <v>870674887</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>68566872.174999997</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>68566872.174999997</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>68566872.174999997</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>68566872.174999997</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="4"/>
-        <v>48000000</v>
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="5"/>
+        <v>20566872.175000001</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15" s="13">
-        <f t="shared" si="4"/>
+      <c r="P15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="13">
-        <f t="shared" si="4"/>
+      <c r="Q15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" si="4"/>
+      <c r="R15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M15" s="13">
-        <f t="shared" si="4"/>
+      <c r="S15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N15" s="13">
-        <f t="shared" si="4"/>
+      <c r="T15" s="13">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="U15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -1560,14 +1738,14 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -1578,65 +1756,89 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" ref="B17:N17" si="5">B9-B15</f>
-        <v>-401046366</v>
+        <f t="shared" ref="B17:V17" si="6">B9-B15</f>
+        <v>-870674887</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="5"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+        <f t="shared" si="6"/>
+        <v>191493185.82499999</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="6"/>
+        <v>212060058</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -1659,14 +1861,14 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -1677,65 +1879,89 @@
         <v>16</v>
       </c>
       <c r="B19" s="16">
-        <f t="shared" ref="B19:N19" si="6">B17-B18</f>
-        <v>-401046366</v>
+        <f t="shared" ref="B19:V19" si="7">B17-B18</f>
+        <v>-870674887</v>
       </c>
       <c r="C19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>-68566872.174999997</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="6"/>
-        <v>100442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="M19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="6"/>
-        <v>148442040.59999999</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+        <f t="shared" si="7"/>
+        <v>191493185.82499999</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="T19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
+      <c r="V19" s="16">
+        <f t="shared" si="7"/>
+        <v>212060058</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1863,7 +2089,10 @@
       <c r="B24" s="20"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="6">
+        <f>B12+SUM(B14:F14)</f>
+        <v>1062674887</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1891,12 +2120,15 @@
         <v>19</v>
       </c>
       <c r="B25" s="22">
-        <f t="array" ref="B25">NPV(B22,C19:N19)</f>
-        <v>1072045940.0369128</v>
+        <f t="array" ref="B25">NPV(B22,C19:V19)</f>
+        <v>1538287590.8079336</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="33">
+        <f>B26-E24</f>
+        <v>246802466.09999943</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1924,12 +2156,15 @@
         <v>10</v>
       </c>
       <c r="B26" s="22">
-        <f>$B$12</f>
-        <v>371046366</v>
+        <f>SUM(B15:V15)</f>
+        <v>1309477353.0999994</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <f>E25/E24*100</f>
+        <v>23.224644632069811</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1958,7 +2193,7 @@
       </c>
       <c r="B27" s="24">
         <f>B25-B26</f>
-        <v>700999574.0369128</v>
+        <v>228810237.70793414</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1990,8 +2225,8 @@
         <v>21</v>
       </c>
       <c r="B28" s="25">
-        <f>IRR(B19:N19)</f>
-        <v>0.25700472748999426</v>
+        <f>IRR(B19:V19)</f>
+        <v>9.7034035851511158E-2</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2077,50 +2312,66 @@
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="O31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2129,50 +2380,66 @@
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="8">
+      <c r="C32" s="34">
         <v>1</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="34">
         <v>2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="34">
         <v>3</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="34">
         <v>4</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="34">
         <v>5</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="34">
         <v>6</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="34">
         <v>7</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="34">
         <v>8</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="34">
         <v>9</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="34">
         <v>10</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="34">
         <v>11</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="34">
         <v>12</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="O32" s="34">
+        <v>13</v>
+      </c>
+      <c r="P32" s="34">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>15</v>
+      </c>
+      <c r="R32" s="34">
+        <v>16</v>
+      </c>
+      <c r="S32" s="34">
+        <v>17</v>
+      </c>
+      <c r="T32" s="34">
+        <v>18</v>
+      </c>
+      <c r="U32" s="34">
+        <v>19</v>
+      </c>
+      <c r="V32" s="34">
+        <v>20</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -2183,62 +2450,86 @@
         <v>22</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="6">
-        <f>C19/POWER(1+$B$22,C32)</f>
-        <v>95659086.285714269</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" ref="C33:N33" si="7">D19/POWER(1+$B$22,D32)</f>
-        <v>91103891.700680271</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="7"/>
-        <v>86765611.143505007</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="7"/>
-        <v>82633915.374766678</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="7"/>
-        <v>78698967.023587301</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="7"/>
-        <v>74951397.165321261</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="7"/>
-        <v>105494986.86083749</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="7"/>
-        <v>100471416.05794048</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="7"/>
-        <v>95687062.912324265</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="7"/>
-        <v>91130536.106975481</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="7"/>
-        <v>86790986.768548071</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="7"/>
-        <v>82658082.636712462</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="C33" s="35">
+        <f t="shared" ref="C33:V33" si="8">C19/POWER(1+$B$22,C32)</f>
+        <v>-65301783.023809515</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="8"/>
+        <v>-62192174.308390021</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="8"/>
+        <v>-59230642.198466681</v>
+      </c>
+      <c r="F33" s="35">
+        <f t="shared" si="8"/>
+        <v>-56410135.427111126</v>
+      </c>
+      <c r="G33" s="35">
+        <f t="shared" si="8"/>
+        <v>150039921.79429448</v>
+      </c>
+      <c r="H33" s="35">
+        <f t="shared" si="8"/>
+        <v>142895163.61361381</v>
+      </c>
+      <c r="I33" s="35">
+        <f t="shared" si="8"/>
+        <v>136090632.0129655</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" si="8"/>
+        <v>129610125.72663383</v>
+      </c>
+      <c r="K33" s="35">
+        <f t="shared" si="8"/>
+        <v>123438214.9777465</v>
+      </c>
+      <c r="L33" s="35">
+        <f t="shared" si="8"/>
+        <v>117560204.74071096</v>
+      </c>
+      <c r="M33" s="35">
+        <f t="shared" si="8"/>
+        <v>111962099.75305805</v>
+      </c>
+      <c r="N33" s="35">
+        <f t="shared" si="8"/>
+        <v>106630571.19338863</v>
+      </c>
+      <c r="O33" s="35">
+        <f t="shared" si="8"/>
+        <v>112459976.37647952</v>
+      </c>
+      <c r="P33" s="35">
+        <f t="shared" si="8"/>
+        <v>107104739.40617101</v>
+      </c>
+      <c r="Q33" s="35">
+        <f t="shared" si="8"/>
+        <v>102004513.72016282</v>
+      </c>
+      <c r="R33" s="35">
+        <f t="shared" si="8"/>
+        <v>97147155.923964605</v>
+      </c>
+      <c r="S33" s="35">
+        <f t="shared" si="8"/>
+        <v>92521100.879966274</v>
+      </c>
+      <c r="T33" s="35">
+        <f t="shared" si="8"/>
+        <v>88115334.171396464</v>
+      </c>
+      <c r="U33" s="35">
+        <f t="shared" si="8"/>
+        <v>83919365.877520442</v>
+      </c>
+      <c r="V33" s="35">
+        <f t="shared" si="8"/>
+        <v>79923205.597638518</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2249,73 +2540,97 @@
         <v>23</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="27">
+      <c r="C34" s="36">
         <f>C33</f>
-        <v>95659086.285714269</v>
-      </c>
-      <c r="D34" s="27">
-        <f t="shared" ref="D34:N34" si="8">C34+D33</f>
-        <v>186762977.98639452</v>
-      </c>
-      <c r="E34" s="27">
-        <f t="shared" si="8"/>
-        <v>273528589.1298995</v>
-      </c>
-      <c r="F34" s="27">
-        <f t="shared" si="8"/>
-        <v>356162504.50466621</v>
-      </c>
-      <c r="G34" s="27">
-        <f t="shared" si="8"/>
-        <v>434861471.5282535</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="8"/>
-        <v>509812868.69357479</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" si="8"/>
-        <v>615307855.55441225</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="8"/>
-        <v>715779271.61235273</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="8"/>
-        <v>811466334.52467704</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="8"/>
-        <v>902596870.63165247</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="8"/>
-        <v>989387857.40020061</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="8"/>
-        <v>1072045940.036913</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+        <v>-65301783.023809515</v>
+      </c>
+      <c r="D34" s="36">
+        <f t="shared" ref="D34:V34" si="9">C34+D33</f>
+        <v>-127493957.33219954</v>
+      </c>
+      <c r="E34" s="36">
+        <f t="shared" si="9"/>
+        <v>-186724599.53066623</v>
+      </c>
+      <c r="F34" s="36">
+        <f t="shared" si="9"/>
+        <v>-243134734.95777735</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="9"/>
+        <v>-93094813.163482875</v>
+      </c>
+      <c r="H34" s="36">
+        <f t="shared" si="9"/>
+        <v>49800350.450130939</v>
+      </c>
+      <c r="I34" s="36">
+        <f t="shared" si="9"/>
+        <v>185890982.46309644</v>
+      </c>
+      <c r="J34" s="36">
+        <f t="shared" si="9"/>
+        <v>315501108.18973029</v>
+      </c>
+      <c r="K34" s="36">
+        <f t="shared" si="9"/>
+        <v>438939323.16747677</v>
+      </c>
+      <c r="L34" s="36">
+        <f t="shared" si="9"/>
+        <v>556499527.90818775</v>
+      </c>
+      <c r="M34" s="36">
+        <f t="shared" si="9"/>
+        <v>668461627.66124582</v>
+      </c>
+      <c r="N34" s="36">
+        <f t="shared" si="9"/>
+        <v>775092198.8546344</v>
+      </c>
+      <c r="O34" s="36">
+        <f t="shared" si="9"/>
+        <v>887552175.23111391</v>
+      </c>
+      <c r="P34" s="36">
+        <f t="shared" si="9"/>
+        <v>994656914.63728487</v>
+      </c>
+      <c r="Q34" s="36">
+        <f t="shared" si="9"/>
+        <v>1096661428.3574476</v>
+      </c>
+      <c r="R34" s="36">
+        <f t="shared" si="9"/>
+        <v>1193808584.2814121</v>
+      </c>
+      <c r="S34" s="36">
+        <f t="shared" si="9"/>
+        <v>1286329685.1613784</v>
+      </c>
+      <c r="T34" s="36">
+        <f t="shared" si="9"/>
+        <v>1374445019.3327749</v>
+      </c>
+      <c r="U34" s="35">
+        <f t="shared" si="9"/>
+        <v>1458364385.2102952</v>
+      </c>
+      <c r="V34" s="35">
+        <f t="shared" si="9"/>
+        <v>1538287590.8079338</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="29">
-        <v>5</v>
+      <c r="B35" s="28">
+        <v>18</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2334,8 +2649,12 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="T35" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="28">
+        <v>18</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -2362,7 +2681,6 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -2427,10 +2745,10 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2457,8 +2775,8 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2485,12 +2803,12 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="33">
-        <f>SUM(C8:N8)</f>
-        <v>1781304487.1999996</v>
+      <c r="B41" s="32">
+        <f>SUM(C8:V8)</f>
+        <v>3392960928</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2518,12 +2836,12 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="33">
-        <f>SUM(C13:N14)</f>
-        <v>288000000</v>
+      <c r="B42" s="32">
+        <f>SUM(C13:V14)</f>
+        <v>192000000</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2551,12 +2869,12 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <f>B41-B42</f>
-        <v>1493304487.1999996</v>
+        <v>3200960928</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2584,11 +2902,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="33">
-        <f>SUM(C18:N18)</f>
+      <c r="B44" s="32">
+        <f>SUM(C18:V18)</f>
         <v>0</v>
       </c>
       <c r="C44" s="3"/>
@@ -2617,12 +2935,12 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <f>B43-B44</f>
-        <v>1493304487.1999996</v>
+        <v>3200960928</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2650,12 +2968,12 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <f>B45*0.19</f>
-        <v>283727852.5679999</v>
+        <v>608182576.32000005</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2683,12 +3001,12 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <f>B45-B46</f>
-        <v>1209576634.6319997</v>
+        <v>2592778351.6799998</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -29409,8 +29727,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29423,307 +29741,521 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="26" width="10.5703125" customWidth="1"/>
+    <col min="9" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:10" ht="12.75" customHeight="1">
-      <c r="E2" s="34" t="s">
+    <row r="1" spans="2:16" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:16" ht="12.75" customHeight="1">
+      <c r="E2" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="34" t="s">
+    <row r="3" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="39">
         <f>SUM(B3:B41)</f>
-        <v>401046366</v>
-      </c>
-      <c r="H3" s="34" t="s">
+        <v>852674887</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B4" s="37">
+      <c r="M3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B4" s="41">
         <f>4000000*4</f>
         <v>16000000</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="40">
+      <c r="C4" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="43">
         <v>500000</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B5" s="41">
+      <c r="M4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="40">
+        <v>2</v>
+      </c>
+      <c r="O4" s="40">
+        <f>45</f>
+        <v>45</v>
+      </c>
+      <c r="P4" s="40">
+        <f t="shared" ref="P4:P18" si="0">N4*O4*4000</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B5" s="44">
         <f>76266474 * 2</f>
         <v>152532948</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="C5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="39">
         <f>E3-B23</f>
-        <v>371046366</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="43">
+        <v>822674887</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="46">
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B6" s="41">
-        <v>1500000</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="43">
+      <c r="M5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="40">
+        <v>3</v>
+      </c>
+      <c r="O5" s="40">
+        <v>60</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" si="0"/>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="46">
         <v>200000</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="45">
+      <c r="M6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1</v>
+      </c>
+      <c r="O6" s="40">
+        <v>850</v>
+      </c>
+      <c r="P6" s="40">
+        <f t="shared" si="0"/>
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B7" s="44">
+        <v>200000000</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="48">
         <v>833000</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="41"/>
-      <c r="H8" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="45">
+      <c r="M7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="40">
+        <v>3</v>
+      </c>
+      <c r="O7" s="40">
+        <v>200</v>
+      </c>
+      <c r="P7" s="40">
+        <f t="shared" si="0"/>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B8" s="44"/>
+      <c r="H8" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="48">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="46"/>
-    </row>
-    <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B12" s="41">
+      <c r="M8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="40">
+        <v>5</v>
+      </c>
+      <c r="O8" s="40">
+        <v>150</v>
+      </c>
+      <c r="P8" s="40">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B9" s="49"/>
+      <c r="M9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="40">
+        <v>3</v>
+      </c>
+      <c r="O9" s="40">
+        <v>120</v>
+      </c>
+      <c r="P9" s="40">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1</v>
+      </c>
+      <c r="O10" s="40">
+        <v>4500</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B11" s="41"/>
+      <c r="C11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="40">
+        <v>5</v>
+      </c>
+      <c r="O11" s="40">
+        <v>5938</v>
+      </c>
+      <c r="P11" s="40">
+        <f t="shared" si="0"/>
+        <v>118760000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B12" s="44">
         <v>39936679</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B13" s="41">
+      <c r="C12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="40">
+        <v>3</v>
+      </c>
+      <c r="O12" s="40">
+        <v>12475</v>
+      </c>
+      <c r="P12" s="40">
+        <f t="shared" si="0"/>
+        <v>149700000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B13" s="44">
         <v>4271718</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B14" s="41">
+      <c r="C13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="40">
+        <v>5</v>
+      </c>
+      <c r="O13" s="40">
+        <v>233</v>
+      </c>
+      <c r="P13" s="40">
+        <f t="shared" si="0"/>
+        <v>4660000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B14" s="44">
         <v>13202642</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B15" s="46">
+      <c r="C14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="40">
+        <v>5</v>
+      </c>
+      <c r="O14" s="40">
+        <v>1216</v>
+      </c>
+      <c r="P14" s="40">
+        <f t="shared" si="0"/>
+        <v>24320000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B15" s="49">
         <v>4460000</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="36">
+      <c r="C15" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="40">
+        <v>5</v>
+      </c>
+      <c r="O15" s="40">
+        <v>368</v>
+      </c>
+      <c r="P15" s="40">
+        <f t="shared" si="0"/>
+        <v>7360000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B16" s="50"/>
+      <c r="C16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="40">
+        <v>5</v>
+      </c>
+      <c r="O16" s="40">
+        <v>927</v>
+      </c>
+      <c r="P16" s="40">
+        <f t="shared" si="0"/>
+        <v>18540000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B17" s="51"/>
+      <c r="C17" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="39">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="49"/>
-      <c r="C18" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="36">
+      <c r="M17" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="40">
+        <v>5</v>
+      </c>
+      <c r="O17" s="40">
+        <v>927</v>
+      </c>
+      <c r="P17" s="40">
+        <f t="shared" si="0"/>
+        <v>18540000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B18" s="52"/>
+      <c r="C18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="39">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="49"/>
-      <c r="C19" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="M18" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="40">
+        <v>5</v>
+      </c>
+      <c r="O18" s="40">
+        <v>35</v>
+      </c>
+      <c r="P18" s="40">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B19" s="52"/>
+      <c r="C19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="39">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="49"/>
-      <c r="C20" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="P19" s="40">
+        <f>SUM(P4:P18)</f>
+        <v>371900000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B20" s="52"/>
+      <c r="C20" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="39">
         <v>5000000</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="49"/>
-      <c r="C21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="36">
+    <row r="21" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B21" s="52"/>
+      <c r="C21" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="39">
         <v>5000000</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="49"/>
-      <c r="C22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="36">
+    <row r="22" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B22" s="52"/>
+      <c r="C22" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="39">
         <v>5000000</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="46">
+    <row r="23" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B23" s="49">
         <f>SUM(D17:D22)</f>
         <v>30000000</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="37">
+    <row r="24" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B24" s="50"/>
+      <c r="C24" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B25" s="41">
         <v>20000000</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="41">
-        <f>118771479</f>
-        <v>118771479</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="41"/>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="41"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="41"/>
-    </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="41"/>
-    </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="41"/>
+      <c r="C25" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B26" s="44">
+        <f>P19</f>
+        <v>371900000</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B28" s="44"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B29" s="44"/>
+    </row>
+    <row r="30" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B32" s="44"/>
     </row>
     <row r="33" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
     </row>
     <row r="34" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B34" s="46"/>
+      <c r="B34" s="49"/>
     </row>
     <row r="35" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B35" s="47"/>
-      <c r="C35" s="34" t="s">
-        <v>63</v>
+      <c r="B35" s="50"/>
+      <c r="C35" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B36" s="37">
+      <c r="B36" s="41">
         <f>4*47000</f>
         <v>188000</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>64</v>
+      <c r="C36" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B37" s="41">
+      <c r="B37" s="44">
         <v>182900</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>65</v>
+      <c r="C37" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
     </row>
     <row r="39" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
     </row>
     <row r="40" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B40" s="36"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B41" s="36"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="2:3" ht="12.75" customHeight="1"/>
     <row r="43" spans="2:3" ht="12.75" customHeight="1"/>
